--- a/SocialRunningTracker_GraphQL_Graphene&Python/runningGroups.xlsx
+++ b/SocialRunningTracker_GraphQL_Graphene&Python/runningGroups.xlsx
@@ -112,6 +112,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -405,7 +409,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
